--- a/archivos de importación/nota.xlsx
+++ b/archivos de importación/nota.xlsx
@@ -1,66 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4A55044E28B94526BF57908CD182DFAEE7B99B25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9A7942-9550-424E-A38E-4FCC31483A1F}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>alumno              materia                  profesor       nota      evaluación       fecha evaluación</t>
-  </si>
-  <si>
-    <t>Carlos Gómez        Programación I           Martín Díaz      9    Parcial        05/04/2025</t>
-  </si>
-  <si>
-    <t>Luisa Méndez        Base de Datos            Lucía Reyes       8   TP          12/04/2025</t>
-  </si>
-  <si>
-    <t>Roberto Sosa        Algoritmos Avanzados     Javier López       7    Final    20/05/2025</t>
-  </si>
-  <si>
-    <t>Julio Hernández     Estructuras de Datos     Ana Romero    6     Parcial  01/06/2025</t>
-  </si>
-  <si>
-    <t>Carlos Gómez        Análisis de Sistemas I   Martín Díaz    1   Parcial   10/05/2025</t>
-  </si>
-  <si>
-    <t>Luisa Méndez        Programación I           Martín Díaz    4    Final     30/06/2025</t>
-  </si>
-  <si>
-    <t>Roberto Sosa        Base de Datos            Lucía Reyes     8    TP          25/05/2025</t>
-  </si>
-  <si>
-    <t>Julio Hernández     Algoritmos Avanzados     Javier López  5  Final  15/07/2025</t>
-  </si>
-  <si>
-    <t>Luisa Pérez         Estructuras de Datos     Ana Romero    7     Parcial   05/06/2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+  <si>
+    <t>fecha evaluación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alumno                                    </t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programación I </t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>evaluación</t>
+  </si>
+  <si>
+    <t>Algoritmos Avanzados</t>
+  </si>
+  <si>
+    <t>Estructuras de Datos</t>
+  </si>
+  <si>
+    <t>Análisis de Sistemas I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programación I  </t>
+  </si>
+  <si>
+    <t>Martín Díaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucía Reyes </t>
+  </si>
+  <si>
+    <t>Javier López</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ana Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier López </t>
+  </si>
+  <si>
+    <t>Ana Romero</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Gómez                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa Méndez                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Sosa                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Hernández                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Gómez </t>
+  </si>
+  <si>
+    <t>Luisa Méndez</t>
+  </si>
+  <si>
+    <t>Roberto Sosa</t>
+  </si>
+  <si>
+    <t>Julio Hernández</t>
+  </si>
+  <si>
+    <t>Luisa Pérez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,28 +141,60 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,83 +484,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="122.541504" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45813</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/archivos de importación/nota.xlsx
+++ b/archivos de importación/nota.xlsx
@@ -487,9 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
